--- a/Los Angeles Dodgers.xlsx
+++ b/Los Angeles Dodgers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
   <si>
     <t>yearID</t>
   </si>
@@ -22,7 +22,13 @@
     <t>teamID</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>attendance</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
   <si>
     <t>ID</t>
@@ -32,9 +38,6 @@
   </si>
   <si>
     <t>salary</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>LAN</t>
@@ -398,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,741 +429,840 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1985</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>3264593</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>95</v>
+      </c>
+      <c r="F2">
         <v>5888</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>44367</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>10967917</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1986</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>3023208</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>73</v>
+      </c>
+      <c r="F3">
         <v>28304</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>62560</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>14913776</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1987</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>2797409</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>73</v>
+      </c>
+      <c r="F4">
         <v>44478</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>55468</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>13675403</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1988</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>2980262</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>94</v>
+      </c>
+      <c r="F5">
         <v>66285</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>60210</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>16850515</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1989</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>2944653</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>77</v>
+      </c>
+      <c r="F6">
         <v>89497</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>63023</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>21071562</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1990</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>3002396</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>86</v>
+      </c>
+      <c r="F7">
         <v>128485</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>72065</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>21318704</v>
       </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>1991</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>3348170</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>93</v>
+      </c>
+      <c r="F8">
         <v>134055</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>62550</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>32790664</v>
       </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>1992</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>2473266</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>63</v>
+      </c>
+      <c r="F9">
         <v>150423</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>61219</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>44788166</v>
       </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1993</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>3170393</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>81</v>
+      </c>
+      <c r="F10">
         <v>193584</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>68448</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>39331999</v>
       </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>1994</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
         <v>2279355</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>58</v>
+      </c>
+      <c r="F11">
         <v>215791</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>67177</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>38000001</v>
       </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1995</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
         <v>2766251</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>78</v>
+      </c>
+      <c r="F12">
         <v>291930</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>81215</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>39273201</v>
       </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1996</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
         <v>3188454</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>90</v>
+      </c>
+      <c r="F13">
         <v>282896</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>71136</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>35355000</v>
       </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1997</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
         <v>3319504</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>88</v>
+      </c>
+      <c r="F14">
         <v>293145</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>67530</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>45380304</v>
       </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>1998</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
         <v>3089222</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>83</v>
+      </c>
+      <c r="F15">
         <v>365449</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>77520</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>48820000</v>
       </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>1999</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
         <v>3095346</v>
       </c>
-      <c r="D16">
+      <c r="E16">
+        <v>77</v>
+      </c>
+      <c r="F16">
         <v>399653</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>78540</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>80862453</v>
       </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>2000</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
         <v>2880242</v>
       </c>
-      <c r="D17">
+      <c r="E17">
+        <v>86</v>
+      </c>
+      <c r="F17">
         <v>329511</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>60840</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>87924286</v>
       </c>
-      <c r="G17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2001</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
         <v>3017143</v>
       </c>
-      <c r="D18">
+      <c r="E18">
+        <v>86</v>
+      </c>
+      <c r="F18">
         <v>391964</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>68730</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>109105953</v>
       </c>
-      <c r="G18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2002</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
         <v>3131255</v>
       </c>
-      <c r="D19">
+      <c r="E19">
+        <v>92</v>
+      </c>
+      <c r="F19">
         <v>373815</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>62400</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>94850953</v>
       </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2003</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
         <v>3138626</v>
       </c>
-      <c r="D20">
+      <c r="E20">
+        <v>85</v>
+      </c>
+      <c r="F20">
         <v>380100</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>60750</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>105572620</v>
       </c>
-      <c r="G20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>2004</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
         <v>3488283</v>
       </c>
-      <c r="D21">
+      <c r="E21">
+        <v>93</v>
+      </c>
+      <c r="F21">
         <v>433053</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>66420</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>92902001</v>
       </c>
-      <c r="G21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>2005</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
         <v>3603646</v>
       </c>
-      <c r="D22">
+      <c r="E22">
+        <v>71</v>
+      </c>
+      <c r="F22">
         <v>505995</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>74700</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>83039000</v>
       </c>
-      <c r="G22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>2006</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
         <v>3758545</v>
       </c>
-      <c r="D23">
+      <c r="E23">
+        <v>88</v>
+      </c>
+      <c r="F23">
         <v>495306</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>70560</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>98447187</v>
       </c>
-      <c r="G23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>2007</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
         <v>3857036</v>
       </c>
-      <c r="D24">
+      <c r="E24">
+        <v>82</v>
+      </c>
+      <c r="F24">
         <v>537254</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>73950</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>108454524</v>
       </c>
-      <c r="G24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>2008</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
         <v>3730553</v>
       </c>
-      <c r="D25">
+      <c r="E25">
+        <v>84</v>
+      </c>
+      <c r="F25">
         <v>561643</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>74820</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>118588536</v>
       </c>
-      <c r="G25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>2009</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
         <v>3761655</v>
       </c>
-      <c r="D26">
+      <c r="E26">
+        <v>95</v>
+      </c>
+      <c r="F26">
         <v>504975</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>65250</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>100414592</v>
       </c>
-      <c r="G26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>2010</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
         <v>3562320</v>
       </c>
-      <c r="D27">
+      <c r="E27">
+        <v>80</v>
+      </c>
+      <c r="F27">
         <v>567567</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>71280</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>95358016</v>
       </c>
-      <c r="G27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>2011</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
         <v>2935139</v>
       </c>
-      <c r="D28">
+      <c r="E28">
+        <v>82</v>
+      </c>
+      <c r="F28">
         <v>655545</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>80100</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>104188999</v>
       </c>
-      <c r="G28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>2012</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
         <v>3324246</v>
       </c>
-      <c r="D29">
+      <c r="E29">
+        <v>86</v>
+      </c>
+      <c r="F29">
         <v>680325</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>80970</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>95143575</v>
       </c>
-      <c r="G29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>2013</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
         <v>3743527</v>
       </c>
-      <c r="D30">
+      <c r="E30">
+        <v>92</v>
+      </c>
+      <c r="F30">
         <v>752016</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>87328</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>223362196</v>
       </c>
-      <c r="G30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>2014</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
         <v>3782337</v>
       </c>
-      <c r="D31">
+      <c r="E31">
+        <v>94</v>
+      </c>
+      <c r="F31">
         <v>777968</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>88288</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>217014600</v>
       </c>
-      <c r="G31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>2015</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
         <v>3764815</v>
       </c>
-      <c r="D32">
+      <c r="E32">
+        <v>92</v>
+      </c>
+      <c r="F32">
         <v>728741</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>80881</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>215792000</v>
       </c>
-      <c r="G32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>2016</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
         <v>3703312</v>
       </c>
-      <c r="D33">
+      <c r="E33">
+        <v>91</v>
+      </c>
+      <c r="F33">
         <v>908705</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>98665</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>221288380</v>
-      </c>
-      <c r="G33" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
